--- a/CostPriceSheetTemplate.xlsx
+++ b/CostPriceSheetTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c70a16c0bf154e2b/Desktop/qa-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536F416B-E18B-4A57-BC42-5FAFE65F0BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{536F416B-E18B-4A57-BC42-5FAFE65F0BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE0028BB-889C-4905-A678-B962BB7FCD72}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1CAC9997-E2CE-BF47-BD95-1C16DF214F60}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -489,26 +489,41 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>10</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>10</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>10</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>10</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>10</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>14</v>
       </c>

--- a/CostPriceSheetTemplate.xlsx
+++ b/CostPriceSheetTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\IdeaProjects\qa-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF75693-A86E-43EE-82E2-A228306AC6CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1629A49-625C-4C13-82F7-18FDF6222A79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1327,13 +1327,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
